--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF437407-A069-44B4-91B7-7CC9FE93071A}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7FACAA-E091-4D6C-8217-AF8DCE889327}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,12 +180,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,9 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +518,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -557,8 +564,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="2">
+        <v>1000000000</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7FACAA-E091-4D6C-8217-AF8DCE889327}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC6BF1C-5DDB-4F9D-BEE1-3EACF58AEBA7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -587,8 +587,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" s="2">
+        <v>1000000000</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC6BF1C-5DDB-4F9D-BEE1-3EACF58AEBA7}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AF4590-DB21-4B8D-AEC2-E40FC353648E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,18 +180,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,10 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +508,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,11 +557,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>1000000000</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>84845467162</v>
       </c>
       <c r="F2">
         <v>50000000</v>
@@ -587,8 +580,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>1000000000</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1948,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>186171889</v>
       </c>
       <c r="F62">
         <v>113000000</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>121841700</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2224,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>275097724</v>
       </c>
       <c r="F74">
         <v>310000000</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>275097724</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -2500,7 +2493,7 @@
         <v>4665461000</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>6757574628</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2776,7 +2769,7 @@
         <v>35000000</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>34500000</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3880,13 +3873,13 @@
         <v>78140000</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>99858450</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>27147500</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
@@ -4156,13 +4149,13 @@
         <v>291666000</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>243961748</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>243961748</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
@@ -4432,7 +4425,7 @@
         <v>24114094667</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>450857274</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4708,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>7366373</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5260,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>24488000</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -5812,13 +5805,13 @@
         <v>129134000</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>109818500</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>52871500</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.45">
@@ -6364,7 +6357,7 @@
         <v>355000000</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1724237268</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -7744,13 +7737,13 @@
         <v>98435000</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>112428554</v>
       </c>
       <c r="F314">
         <v>98435000</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>19564700</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.45">
@@ -8020,13 +8013,13 @@
         <v>188333000</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>166384517</v>
       </c>
       <c r="F326">
         <v>188333000</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>166384517</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.45">
@@ -8296,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>620219118</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9676,13 +9669,13 @@
         <v>50834000</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>107373135</v>
       </c>
       <c r="F398">
         <v>50834000</v>
       </c>
       <c r="G398">
-        <v>0</v>
+        <v>29120235</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.45">
@@ -9952,13 +9945,13 @@
         <v>208442000</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>180318716</v>
       </c>
       <c r="F410">
         <v>208442000</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>180294464</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.45">
@@ -10228,7 +10221,7 @@
         <v>100000000</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>656537346</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11056,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>46460160</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -11608,13 +11601,13 @@
         <v>142200000</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>125678941</v>
       </c>
       <c r="F482">
         <v>8750000</v>
       </c>
       <c r="G482">
-        <v>0</v>
+        <v>17499750</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.45">
@@ -11884,13 +11877,13 @@
         <v>214166666</v>
       </c>
       <c r="E494">
-        <v>0</v>
+        <v>201478069</v>
       </c>
       <c r="F494">
         <v>216666666.59999999</v>
       </c>
       <c r="G494">
-        <v>0</v>
+        <v>201478069</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.45">
@@ -12160,7 +12153,7 @@
         <v>90000000</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>218226790</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -13540,13 +13533,13 @@
         <v>62259333.329999998</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>106646150</v>
       </c>
       <c r="F566">
         <v>0</v>
       </c>
       <c r="G566">
-        <v>0</v>
+        <v>19578750</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.45">
@@ -13816,13 +13809,13 @@
         <v>255298000</v>
       </c>
       <c r="E578">
-        <v>0</v>
+        <v>199624421</v>
       </c>
       <c r="F578">
         <v>255298000</v>
       </c>
       <c r="G578">
-        <v>0</v>
+        <v>199624421</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.45">
@@ -14092,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="E590">
-        <v>0</v>
+        <v>31467000</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -14368,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="E602">
-        <v>0</v>
+        <v>36500000</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -14644,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="E614">
-        <v>0</v>
+        <v>62100000</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -15472,13 +15465,13 @@
         <v>115852000</v>
       </c>
       <c r="E650">
-        <v>0</v>
+        <v>120480816</v>
       </c>
       <c r="F650">
         <v>0</v>
       </c>
       <c r="G650">
-        <v>0</v>
+        <v>16907009</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.45">
@@ -15748,13 +15741,13 @@
         <v>210325000</v>
       </c>
       <c r="E662">
-        <v>0</v>
+        <v>162001884</v>
       </c>
       <c r="F662">
         <v>0</v>
       </c>
       <c r="G662">
-        <v>0</v>
+        <v>162001884</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.45">
@@ -16024,7 +16017,7 @@
         <v>85000000</v>
       </c>
       <c r="E674">
-        <v>0</v>
+        <v>2021637708</v>
       </c>
       <c r="F674">
         <v>0</v>
@@ -16576,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>21262500</v>
       </c>
       <c r="F698">
         <v>0</v>
@@ -16852,13 +16845,13 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>2159300</v>
       </c>
       <c r="F710">
         <v>0</v>
       </c>
       <c r="G710">
-        <v>0</v>
+        <v>2159300</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.45">
@@ -17404,13 +17397,13 @@
         <v>33367000</v>
       </c>
       <c r="E734">
-        <v>0</v>
+        <v>69661093</v>
       </c>
       <c r="F734">
         <v>33367000</v>
       </c>
       <c r="G734">
-        <v>0</v>
+        <v>13701000</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.45">
@@ -17680,13 +17673,13 @@
         <v>192500000</v>
       </c>
       <c r="E746">
-        <v>0</v>
+        <v>143058335</v>
       </c>
       <c r="F746">
         <v>192500000</v>
       </c>
       <c r="G746">
-        <v>0</v>
+        <v>143058335</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.45">
@@ -17956,7 +17949,7 @@
         <v>138362000</v>
       </c>
       <c r="E758">
-        <v>0</v>
+        <v>2817500752</v>
       </c>
       <c r="F758">
         <v>138362000</v>
@@ -18508,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="E782">
-        <v>0</v>
+        <v>3970000</v>
       </c>
       <c r="F782">
         <v>0</v>
@@ -19336,13 +19329,13 @@
         <v>63825000</v>
       </c>
       <c r="E818">
-        <v>0</v>
+        <v>57340750</v>
       </c>
       <c r="F818">
         <v>64750000</v>
       </c>
       <c r="G818">
-        <v>0</v>
+        <v>16205500</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.45">
@@ -19612,13 +19605,13 @@
         <v>242646666.69999999</v>
       </c>
       <c r="E830">
-        <v>0</v>
+        <v>209525890</v>
       </c>
       <c r="F830">
         <v>242646666.69999999</v>
       </c>
       <c r="G830">
-        <v>0</v>
+        <v>203746495</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.45">
@@ -19888,7 +19881,7 @@
         <v>256149000</v>
       </c>
       <c r="E842">
-        <v>0</v>
+        <v>261345961</v>
       </c>
       <c r="F842">
         <v>0</v>
@@ -21268,13 +21261,13 @@
         <v>65075000</v>
       </c>
       <c r="E902">
-        <v>0</v>
+        <v>66980000</v>
       </c>
       <c r="F902">
         <v>65075000</v>
       </c>
       <c r="G902">
-        <v>0</v>
+        <v>33275000</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.45">
@@ -21544,13 +21537,13 @@
         <v>34257000</v>
       </c>
       <c r="E914">
-        <v>0</v>
+        <v>35093864</v>
       </c>
       <c r="F914">
         <v>34257000</v>
       </c>
       <c r="G914">
-        <v>0</v>
+        <v>35093864</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.45">
@@ -23200,13 +23193,13 @@
         <v>121552000</v>
       </c>
       <c r="E986">
-        <v>0</v>
+        <v>73891500</v>
       </c>
       <c r="F986">
         <v>121552000</v>
       </c>
       <c r="G986">
-        <v>0</v>
+        <v>5977500</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.45">
@@ -23476,13 +23469,13 @@
         <v>212500000</v>
       </c>
       <c r="E998">
-        <v>0</v>
+        <v>96928940</v>
       </c>
       <c r="F998">
         <v>212500000</v>
       </c>
       <c r="G998">
-        <v>0</v>
+        <v>96928940</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.45">
@@ -23752,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="E1010">
-        <v>0</v>
+        <v>114501830</v>
       </c>
       <c r="F1010">
         <v>0</v>
@@ -24304,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="E1034">
-        <v>0</v>
+        <v>6119400</v>
       </c>
       <c r="F1034">
         <v>0</v>
@@ -25132,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="E1070">
-        <v>0</v>
+        <v>3485900</v>
       </c>
       <c r="F1070">
         <v>0</v>
       </c>
       <c r="G1070">
-        <v>0</v>
+        <v>2487500</v>
       </c>
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.45">
@@ -25683,9 +25676,6 @@
       <c r="D1094">
         <v>0</v>
       </c>
-      <c r="E1094">
-        <v>0</v>
-      </c>
       <c r="F1094">
         <v>0</v>
       </c>
@@ -25960,13 +25950,14 @@
         <v>781668000</v>
       </c>
       <c r="E1106">
-        <v>0</v>
+        <f>8382624977+3677432500</f>
+        <v>12060057477</v>
       </c>
       <c r="F1106">
         <v>0</v>
       </c>
       <c r="G1106">
-        <v>0</v>
+        <v>8026770977</v>
       </c>
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.45">
@@ -26236,13 +26227,13 @@
         <v>0</v>
       </c>
       <c r="E1118">
-        <v>0</v>
+        <v>570691280</v>
       </c>
       <c r="F1118">
         <v>0</v>
       </c>
       <c r="G1118">
-        <v>0</v>
+        <v>487891280</v>
       </c>
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.45">
@@ -26512,13 +26503,13 @@
         <v>0</v>
       </c>
       <c r="E1130">
-        <v>0</v>
+        <v>299164397</v>
       </c>
       <c r="F1130">
         <v>0</v>
       </c>
       <c r="G1130">
-        <v>0</v>
+        <v>299164397</v>
       </c>
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.45">
@@ -27064,13 +27055,13 @@
         <v>183078000</v>
       </c>
       <c r="E1154">
-        <v>0</v>
+        <v>3059942452</v>
       </c>
       <c r="F1154">
         <v>178078000</v>
       </c>
       <c r="G1154">
-        <v>0</v>
+        <v>2938136332</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.45">
@@ -27340,13 +27331,13 @@
         <v>213333000</v>
       </c>
       <c r="E1166">
-        <v>0</v>
+        <v>2745885834</v>
       </c>
       <c r="F1166">
         <v>213333000</v>
       </c>
       <c r="G1166">
-        <v>0</v>
+        <v>2745557793</v>
       </c>
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.45">
@@ -27616,13 +27607,13 @@
         <v>100000000</v>
       </c>
       <c r="E1178">
-        <v>0</v>
+        <v>36615068882</v>
       </c>
       <c r="F1178">
         <v>0</v>
       </c>
       <c r="G1178">
-        <v>0</v>
+        <v>27459732935</v>
       </c>
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.45">
@@ -27892,13 +27883,13 @@
         <v>0</v>
       </c>
       <c r="E1190">
-        <v>0</v>
+        <v>299104282</v>
       </c>
       <c r="F1190">
         <v>0</v>
       </c>
       <c r="G1190">
-        <v>0</v>
+        <v>299104282</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.45">
@@ -28168,13 +28159,13 @@
         <v>0</v>
       </c>
       <c r="E1202">
-        <v>0</v>
+        <v>260447000</v>
       </c>
       <c r="F1202">
         <v>0</v>
       </c>
       <c r="G1202">
-        <v>0</v>
+        <v>228247000</v>
       </c>
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.45">
@@ -28444,13 +28435,13 @@
         <v>0</v>
       </c>
       <c r="E1214">
-        <v>0</v>
+        <v>563271893</v>
       </c>
       <c r="F1214">
         <v>0</v>
       </c>
       <c r="G1214">
-        <v>0</v>
+        <v>544836893</v>
       </c>
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.45">
@@ -28996,13 +28987,13 @@
         <v>48354000</v>
       </c>
       <c r="E1238">
-        <v>0</v>
+        <v>1813172829</v>
       </c>
       <c r="F1238">
         <v>0</v>
       </c>
       <c r="G1238">
-        <v>0</v>
+        <v>1743522395</v>
       </c>
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.45">
@@ -29272,13 +29263,13 @@
         <v>128276000</v>
       </c>
       <c r="E1250">
-        <v>0</v>
+        <v>1541350607</v>
       </c>
       <c r="F1250">
         <v>0</v>
       </c>
       <c r="G1250">
-        <v>0</v>
+        <v>1535350607</v>
       </c>
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.45">

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AF4590-DB21-4B8D-AEC2-E40FC353648E}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55FF5C27-C376-4726-A176-9B0CFE2DBDEE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,6 +178,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,10 +509,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E999" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E1014" sqref="E1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -584,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>124394114218</v>
       </c>
       <c r="F3">
         <v>50000000</v>
@@ -1688,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>20986164</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1964,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>319481389</v>
       </c>
       <c r="F63">
         <v>243000000</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>190816700</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2240,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>901692058</v>
       </c>
       <c r="F75">
         <v>310000000</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>745369057</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -2516,7 +2517,7 @@
         <v>11366334000</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>16872425043</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2792,13 +2793,13 @@
         <v>635000000</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>99816016</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>34916016</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
@@ -3896,13 +3897,13 @@
         <v>128140000</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>150600450</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>91981540</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
@@ -4172,13 +4173,13 @@
         <v>291666000</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>243961748</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>243961748</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
@@ -4448,13 +4449,13 @@
         <v>3125397667</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>11268086441</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>412468927</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
@@ -4724,13 +4725,13 @@
         <v>69155000</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>104935473</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>7366373</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.45">
@@ -5276,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>24488000</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>24488000</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.45">
@@ -5828,13 +5829,13 @@
         <v>129134000</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>146681500</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>97234500</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
@@ -6380,13 +6381,13 @@
         <v>979388000</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>4620612693</v>
       </c>
       <c r="F255">
         <v>355000000</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>127775056</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.45">
@@ -6932,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>4050000</v>
       </c>
       <c r="F279">
         <v>29718750</v>
@@ -7760,13 +7761,13 @@
         <v>60854000</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>157043554</v>
       </c>
       <c r="F315">
         <v>60854000</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>123938609</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.45">
@@ -8036,13 +8037,13 @@
         <v>188333000</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>166384517</v>
       </c>
       <c r="F327">
         <v>188333000</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>166384517</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.45">
@@ -8312,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1154453903</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -8588,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>9740403</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -8864,7 +8865,7 @@
         <v>30030000</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>11205000</v>
       </c>
       <c r="F363">
         <v>30030000</v>
@@ -9692,13 +9693,13 @@
         <v>70834000</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>195318954</v>
       </c>
       <c r="F399">
         <v>70834000</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>89609735</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.45">
@@ -9968,13 +9969,13 @@
         <v>208442000</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>180318716</v>
       </c>
       <c r="F411">
         <v>208442000</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>180318716</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.45">
@@ -10244,13 +10245,13 @@
         <v>235000000</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>884253796</v>
       </c>
       <c r="F423">
         <v>185000000</v>
       </c>
       <c r="G423">
-        <v>0</v>
+        <v>26815000</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.45">
@@ -10796,7 +10797,7 @@
         <v>80025000</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>71775000</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -11072,7 +11073,7 @@
         <v>50000000</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>46460160</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -11624,13 +11625,13 @@
         <v>268250000</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>190002191</v>
       </c>
       <c r="F483">
         <v>117200000</v>
       </c>
       <c r="G483">
-        <v>0</v>
+        <v>92109741</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.45">
@@ -11900,13 +11901,13 @@
         <v>214166666</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>201478069</v>
       </c>
       <c r="F495">
         <v>216666666.59999999</v>
       </c>
       <c r="G495">
-        <v>0</v>
+        <v>201478069</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.45">
@@ -12176,13 +12177,13 @@
         <v>2756633000</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>2139255780</v>
       </c>
       <c r="F507">
         <v>90000000</v>
       </c>
       <c r="G507">
-        <v>0</v>
+        <v>135902000</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.45">
@@ -12728,7 +12729,7 @@
         <v>50000000</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>32848750</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -13556,13 +13557,13 @@
         <v>81686766.670000002</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>212465085</v>
       </c>
       <c r="F567">
         <v>62259333.329999998</v>
       </c>
       <c r="G567">
-        <v>0</v>
+        <v>76681150</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.45">
@@ -13832,13 +13833,13 @@
         <v>255298000</v>
       </c>
       <c r="E579">
-        <v>0</v>
+        <v>199624421</v>
       </c>
       <c r="F579">
         <v>255298000</v>
       </c>
       <c r="G579">
-        <v>0</v>
+        <v>199624421</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.45">
@@ -14108,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>0</v>
+        <v>4159698044</v>
       </c>
       <c r="F591">
         <v>0</v>
@@ -14384,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="E603">
-        <v>0</v>
+        <v>36500000</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -14660,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="E615">
-        <v>0</v>
+        <v>62100000</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -15488,13 +15489,13 @@
         <v>102176000</v>
       </c>
       <c r="E651">
-        <v>0</v>
+        <v>191550816</v>
       </c>
       <c r="F651">
         <v>0</v>
       </c>
       <c r="G651">
-        <v>0</v>
+        <v>70540909</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.45">
@@ -15764,13 +15765,13 @@
         <v>210325000</v>
       </c>
       <c r="E663">
-        <v>0</v>
+        <v>162001884</v>
       </c>
       <c r="F663">
         <v>0</v>
       </c>
       <c r="G663">
-        <v>0</v>
+        <v>162001884</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.45">
@@ -16040,7 +16041,7 @@
         <v>272450000</v>
       </c>
       <c r="E675">
-        <v>0</v>
+        <v>2143488568</v>
       </c>
       <c r="F675">
         <v>85000000</v>
@@ -16316,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="E687">
-        <v>0</v>
+        <v>1944000</v>
       </c>
       <c r="F687">
         <v>0</v>
@@ -16592,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="E699">
-        <v>0</v>
+        <v>21262500</v>
       </c>
       <c r="F699">
         <v>0</v>
@@ -16868,13 +16869,13 @@
         <v>0</v>
       </c>
       <c r="E711">
-        <v>0</v>
+        <v>2159300</v>
       </c>
       <c r="F711">
         <v>0</v>
       </c>
       <c r="G711">
-        <v>0</v>
+        <v>2159300</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.45">
@@ -17420,13 +17421,13 @@
         <v>41156000</v>
       </c>
       <c r="E735">
-        <v>0</v>
+        <v>97569501</v>
       </c>
       <c r="F735">
         <v>41156000</v>
       </c>
       <c r="G735">
-        <v>0</v>
+        <v>46055201</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.45">
@@ -17696,13 +17697,13 @@
         <v>192500000</v>
       </c>
       <c r="E747">
-        <v>0</v>
+        <v>143058335</v>
       </c>
       <c r="F747">
         <v>192500000</v>
       </c>
       <c r="G747">
-        <v>0</v>
+        <v>143058335</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.45">
@@ -17972,13 +17973,13 @@
         <v>138362000</v>
       </c>
       <c r="E759">
-        <v>0</v>
+        <v>9443664944</v>
       </c>
       <c r="F759">
         <v>138362000</v>
       </c>
       <c r="G759">
-        <v>0</v>
+        <v>274975443</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.45">
@@ -18524,13 +18525,13 @@
         <v>35387500</v>
       </c>
       <c r="E783">
-        <v>0</v>
+        <v>28052000</v>
       </c>
       <c r="F783">
         <v>0</v>
       </c>
       <c r="G783">
-        <v>0</v>
+        <v>3970000</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.45">
@@ -19352,13 +19353,13 @@
         <v>138250000</v>
       </c>
       <c r="E819">
-        <v>0</v>
+        <v>138604220</v>
       </c>
       <c r="F819">
         <v>138250000</v>
       </c>
       <c r="G819">
-        <v>0</v>
+        <v>85585250</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.45">
@@ -19628,13 +19629,13 @@
         <v>293480000</v>
       </c>
       <c r="E831">
-        <v>0</v>
+        <v>209525890</v>
       </c>
       <c r="F831">
         <v>293480000</v>
       </c>
       <c r="G831">
-        <v>0</v>
+        <v>209525890</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.45">
@@ -19904,13 +19905,13 @@
         <v>232029000</v>
       </c>
       <c r="E843">
-        <v>0</v>
+        <v>464039471</v>
       </c>
       <c r="F843">
         <v>256149000</v>
       </c>
       <c r="G843">
-        <v>0</v>
+        <v>143586204</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.45">
@@ -21284,13 +21285,13 @@
         <v>32625000</v>
       </c>
       <c r="E903">
-        <v>0</v>
+        <v>147623477</v>
       </c>
       <c r="F903">
         <v>32625000</v>
       </c>
       <c r="G903">
-        <v>0</v>
+        <v>75777000</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.45">
@@ -21560,13 +21561,13 @@
         <v>34256000</v>
       </c>
       <c r="E915">
-        <v>0</v>
+        <v>36418506</v>
       </c>
       <c r="F915">
         <v>34256000</v>
       </c>
       <c r="G915">
-        <v>0</v>
+        <v>35093864</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.45">
@@ -21836,7 +21837,7 @@
         <v>147500000</v>
       </c>
       <c r="E927">
-        <v>0</v>
+        <v>611313960</v>
       </c>
       <c r="F927">
         <v>0</v>
@@ -23216,13 +23217,13 @@
         <v>233552000</v>
       </c>
       <c r="E987">
-        <v>0</v>
+        <v>164598350</v>
       </c>
       <c r="F987">
         <v>233552000</v>
       </c>
       <c r="G987">
-        <v>0</v>
+        <v>84304000</v>
       </c>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.45">
@@ -23492,13 +23493,13 @@
         <v>212500000</v>
       </c>
       <c r="E999">
-        <v>0</v>
+        <v>106743940</v>
       </c>
       <c r="F999">
         <v>212500000</v>
       </c>
       <c r="G999">
-        <v>0</v>
+        <v>96928940</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.45">
@@ -23768,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="E1011">
-        <v>0</v>
+        <v>128471830</v>
       </c>
       <c r="F1011">
         <v>0</v>
@@ -24320,7 +24321,7 @@
         <v>0</v>
       </c>
       <c r="E1035">
-        <v>0</v>
+        <v>6119400</v>
       </c>
       <c r="F1035">
         <v>0</v>
@@ -24596,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="F1047">
         <v>0</v>
@@ -25148,13 +25149,13 @@
         <v>0</v>
       </c>
       <c r="E1071">
-        <v>0</v>
+        <v>4490300</v>
       </c>
       <c r="F1071">
         <v>0</v>
       </c>
       <c r="G1071">
-        <v>0</v>
+        <v>2487500</v>
       </c>
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.45">
@@ -25696,9 +25697,6 @@
       <c r="D1095">
         <v>0</v>
       </c>
-      <c r="E1095">
-        <v>0</v>
-      </c>
       <c r="F1095">
         <v>0</v>
       </c>
@@ -25974,7 +25972,8 @@
         <v>660000000</v>
       </c>
       <c r="E1107">
-        <v>0</v>
+        <f>3275360952+4968662500</f>
+        <v>8244023452</v>
       </c>
       <c r="F1107">
         <v>80000000</v>
@@ -26250,7 +26249,7 @@
         <v>254037000</v>
       </c>
       <c r="E1119">
-        <v>0</v>
+        <v>128340000</v>
       </c>
       <c r="F1119">
         <v>0</v>
@@ -26526,7 +26525,7 @@
         <v>0</v>
       </c>
       <c r="E1131">
-        <v>0</v>
+        <v>12720000</v>
       </c>
       <c r="F1131">
         <v>0</v>
@@ -27078,13 +27077,13 @@
         <v>278078000</v>
       </c>
       <c r="E1155">
-        <v>0</v>
+        <v>278599012</v>
       </c>
       <c r="F1155">
         <v>183078000</v>
       </c>
       <c r="G1155">
-        <v>0</v>
+        <v>50559152</v>
       </c>
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.45">
@@ -27354,13 +27353,13 @@
         <v>213333000</v>
       </c>
       <c r="E1167">
-        <v>0</v>
+        <v>277285709</v>
       </c>
       <c r="F1167">
         <v>213333000</v>
       </c>
       <c r="G1167">
-        <v>0</v>
+        <v>268553262</v>
       </c>
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.45">
@@ -27630,7 +27629,7 @@
         <v>720600000</v>
       </c>
       <c r="E1179">
-        <v>0</v>
+        <v>9621440511</v>
       </c>
       <c r="F1179">
         <v>100000000</v>
@@ -28182,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="E1203">
-        <v>0</v>
+        <v>32200000</v>
       </c>
       <c r="F1203">
         <v>0</v>
@@ -28458,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="E1215">
-        <v>0</v>
+        <v>83170000</v>
       </c>
       <c r="F1215">
         <v>0</v>
@@ -29010,13 +29009,13 @@
         <v>98291000</v>
       </c>
       <c r="E1239">
-        <v>0</v>
+        <v>113418784</v>
       </c>
       <c r="F1239">
         <v>49253000</v>
       </c>
       <c r="G1239">
-        <v>0</v>
+        <v>69145150</v>
       </c>
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.45">
@@ -29286,13 +29285,13 @@
         <v>128276000</v>
       </c>
       <c r="E1251">
-        <v>0</v>
+        <v>122446109</v>
       </c>
       <c r="F1251">
         <v>128276000</v>
       </c>
       <c r="G1251">
-        <v>0</v>
+        <v>119102415</v>
       </c>
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.45">

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -512,7 +512,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E999" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1014" sqref="E1014"/>
+      <selection pane="bottomRight" activeCell="F1012" sqref="F1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{638C58A2-E83A-4D84-A82D-CD739993AC95}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6125AF9A-D10E-481A-9712-55627884AB2D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,10 +542,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1011" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D999" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1022" sqref="E1022"/>
+      <selection pane="bottomRight" activeCell="F1005" sqref="F1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="E2" s="3">
         <v>84845467162</v>
@@ -616,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="E3" s="4">
-        <v>39548647056</v>
+        <v>59570632314</v>
       </c>
       <c r="F3" s="7">
         <v>50000000</v>
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>27879534020</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>41</v>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>150000000</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>41</v>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>320862500</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>41</v>
@@ -708,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>13426784080</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>41</v>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>11686187000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>25032829880</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>41</v>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>24914217620</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>41</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>49633981710</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>41</v>
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>33852315000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>83354006000</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>41</v>
@@ -1582,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>41</v>
@@ -1835,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="6">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>41</v>
@@ -1973,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="6">
-        <v>0</v>
+        <v>113000000</v>
       </c>
       <c r="E62" s="3">
         <v>186171889</v>
@@ -1996,16 +1996,16 @@
         <v>25</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>243000000</v>
       </c>
       <c r="E63" s="4">
-        <v>133309500</v>
+        <v>171284525</v>
       </c>
       <c r="F63" s="7">
         <v>243000000</v>
       </c>
       <c r="G63" s="4">
-        <v>68975000</v>
+        <v>143833500</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2019,7 +2019,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>243000000</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>41</v>
@@ -2042,7 +2042,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="6">
-        <v>0</v>
+        <v>1243000000</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>41</v>
@@ -2065,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>593000000</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>41</v>
@@ -2088,7 +2088,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="6">
-        <v>0</v>
+        <v>1043000000</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>41</v>
@@ -2111,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>963000000</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>41</v>
@@ -2134,7 +2134,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="6">
-        <v>0</v>
+        <v>443000000</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>41</v>
@@ -2157,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="6">
-        <v>0</v>
+        <v>493000000</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>41</v>
@@ -2180,7 +2180,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="6">
-        <v>0</v>
+        <v>663000000</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>41</v>
@@ -2203,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="6">
-        <v>0</v>
+        <v>293000000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>41</v>
@@ -2226,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="6">
-        <v>0</v>
+        <v>113000000</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>41</v>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="D74" s="6">
-        <v>0</v>
+        <v>310000000</v>
       </c>
       <c r="E74" s="3">
         <v>275097724</v>
@@ -2272,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="D75" s="7">
-        <v>0</v>
+        <v>310000000</v>
       </c>
       <c r="E75" s="4">
         <v>626594334</v>
@@ -2281,7 +2281,7 @@
         <v>310000000</v>
       </c>
       <c r="G75" s="4">
-        <v>470271333</v>
+        <v>626594334</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -2295,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="6">
-        <v>0</v>
+        <v>310000000</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>41</v>
@@ -2318,7 +2318,7 @@
         <v>26</v>
       </c>
       <c r="D77" s="6">
-        <v>0</v>
+        <v>420000000</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>41</v>
@@ -2341,7 +2341,7 @@
         <v>26</v>
       </c>
       <c r="D78" s="6">
-        <v>0</v>
+        <v>420000000</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>41</v>
@@ -2364,7 +2364,7 @@
         <v>26</v>
       </c>
       <c r="D79" s="6">
-        <v>0</v>
+        <v>420000000</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>41</v>
@@ -2387,7 +2387,7 @@
         <v>26</v>
       </c>
       <c r="D80" s="6">
-        <v>0</v>
+        <v>420000000</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>41</v>
@@ -2410,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="D81" s="6">
-        <v>0</v>
+        <v>370000000</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>41</v>
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="D82" s="6">
-        <v>0</v>
+        <v>400000000</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>41</v>
@@ -2456,7 +2456,7 @@
         <v>26</v>
       </c>
       <c r="D83" s="6">
-        <v>0</v>
+        <v>400000000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>41</v>
@@ -2479,7 +2479,7 @@
         <v>26</v>
       </c>
       <c r="D84" s="6">
-        <v>0</v>
+        <v>400000000</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>41</v>
@@ -2502,7 +2502,7 @@
         <v>26</v>
       </c>
       <c r="D85" s="6">
-        <v>0</v>
+        <v>320000000</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>41</v>
@@ -2551,7 +2551,7 @@
         <v>11366334000</v>
       </c>
       <c r="E87" s="4">
-        <v>10114850415</v>
+        <v>10678407138</v>
       </c>
       <c r="F87" s="7">
         <v>0</v>
@@ -2827,13 +2827,13 @@
         <v>635000000</v>
       </c>
       <c r="E99" s="4">
-        <v>65316016</v>
+        <v>113020000</v>
       </c>
       <c r="F99" s="7">
         <v>0</v>
       </c>
       <c r="G99" s="4">
-        <v>34916016</v>
+        <v>34500000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
@@ -3931,13 +3931,13 @@
         <v>128140000</v>
       </c>
       <c r="E147" s="4">
-        <v>50742000</v>
+        <v>70819316</v>
       </c>
       <c r="F147" s="7">
         <v>0</v>
       </c>
       <c r="G147" s="4">
-        <v>64834040</v>
+        <v>86687950</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
@@ -4207,13 +4207,13 @@
         <v>291666000</v>
       </c>
       <c r="E159" s="4">
-        <v>0</v>
+        <v>222698232</v>
       </c>
       <c r="F159" s="7">
         <v>0</v>
       </c>
       <c r="G159" s="4">
-        <v>0</v>
+        <v>222698232</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
@@ -4483,13 +4483,13 @@
         <v>3125397667</v>
       </c>
       <c r="E171" s="4">
-        <v>10817229167</v>
+        <v>25211824009</v>
       </c>
       <c r="F171" s="7">
         <v>0</v>
       </c>
       <c r="G171" s="4">
-        <v>412468927</v>
+        <v>457037427</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
@@ -4759,7 +4759,7 @@
         <v>69155000</v>
       </c>
       <c r="E183" s="4">
-        <v>97569100</v>
+        <v>108905600</v>
       </c>
       <c r="F183" s="7">
         <v>0</v>
@@ -5863,13 +5863,13 @@
         <v>129134000</v>
       </c>
       <c r="E231" s="4">
-        <v>36863000</v>
+        <v>37750500</v>
       </c>
       <c r="F231" s="7">
         <v>0</v>
       </c>
       <c r="G231" s="4">
-        <v>44363000</v>
+        <v>64950500</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
@@ -6415,13 +6415,13 @@
         <v>979388000</v>
       </c>
       <c r="E255" s="4">
-        <v>2896375425</v>
+        <v>3188732296</v>
       </c>
       <c r="F255" s="7">
         <v>355000000</v>
       </c>
       <c r="G255" s="4">
-        <v>127775056</v>
+        <v>147536656</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.45">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="4">
-        <v>4050000</v>
+        <v>15775000</v>
       </c>
       <c r="F279" s="7">
         <v>29718750</v>
@@ -7795,13 +7795,13 @@
         <v>60854000</v>
       </c>
       <c r="E315" s="4">
-        <v>44615000</v>
+        <v>44348055</v>
       </c>
       <c r="F315" s="7">
         <v>60854000</v>
       </c>
       <c r="G315" s="4">
-        <v>104373909</v>
+        <v>112098409</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.45">
@@ -8071,13 +8071,13 @@
         <v>188333000</v>
       </c>
       <c r="E327" s="4">
-        <v>0</v>
+        <v>158708365</v>
       </c>
       <c r="F327" s="7">
         <v>188333000</v>
       </c>
       <c r="G327" s="4">
-        <v>0</v>
+        <v>158708365</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.45">
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="E339" s="4">
-        <v>534234785</v>
+        <v>882186785</v>
       </c>
       <c r="F339" s="7">
         <v>0</v>
       </c>
       <c r="G339" s="4">
-        <v>0</v>
+        <v>28044916</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.45">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="E351" s="4">
-        <v>9740403</v>
+        <v>28227453</v>
       </c>
       <c r="F351" s="7">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>70834000</v>
       </c>
       <c r="E399" s="4">
-        <v>87945819</v>
+        <v>132788748</v>
       </c>
       <c r="F399" s="7">
         <v>70834000</v>
@@ -10003,13 +10003,13 @@
         <v>208442000</v>
       </c>
       <c r="E411" s="4">
-        <v>0</v>
+        <v>165926590</v>
       </c>
       <c r="F411" s="7">
         <v>208442000</v>
       </c>
       <c r="G411" s="4">
-        <v>24252</v>
+        <v>165950842</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.45">
@@ -10279,13 +10279,13 @@
         <v>235000000</v>
       </c>
       <c r="E423" s="4">
-        <v>227716450</v>
+        <v>683351141</v>
       </c>
       <c r="F423" s="7">
         <v>185000000</v>
       </c>
       <c r="G423" s="4">
-        <v>26815000</v>
+        <v>93332500</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.45">
@@ -11659,13 +11659,13 @@
         <v>268250000</v>
       </c>
       <c r="E483" s="4">
-        <v>64323250</v>
+        <v>82708000</v>
       </c>
       <c r="F483" s="7">
         <v>117200000</v>
       </c>
       <c r="G483" s="4">
-        <v>74609991</v>
+        <v>92994741</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.45">
@@ -11935,13 +11935,13 @@
         <v>214166666</v>
       </c>
       <c r="E495" s="4">
-        <v>0</v>
+        <v>193379527</v>
       </c>
       <c r="F495" s="7">
         <v>216666666.59999999</v>
       </c>
       <c r="G495" s="4">
-        <v>0</v>
+        <v>193379527</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.45">
@@ -12211,13 +12211,13 @@
         <v>2756633000</v>
       </c>
       <c r="E507" s="4">
-        <v>1921028990</v>
+        <v>2975215110</v>
       </c>
       <c r="F507" s="7">
         <v>90000000</v>
       </c>
       <c r="G507" s="4">
-        <v>135902000</v>
+        <v>258244550</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.45">
@@ -13591,13 +13591,13 @@
         <v>81686766.670000002</v>
       </c>
       <c r="E567" s="4">
-        <v>105818935</v>
+        <v>124319935</v>
       </c>
       <c r="F567" s="7">
         <v>62259333.329999998</v>
       </c>
       <c r="G567" s="4">
-        <v>57102400</v>
+        <v>94911900</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.45">
@@ -13867,13 +13867,13 @@
         <v>255298000</v>
       </c>
       <c r="E579" s="4">
-        <v>0</v>
+        <v>197235478</v>
       </c>
       <c r="F579" s="7">
         <v>255298000</v>
       </c>
       <c r="G579" s="4">
-        <v>0</v>
+        <v>197235478</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.45">
@@ -14143,13 +14143,13 @@
         <v>0</v>
       </c>
       <c r="E591" s="4">
-        <v>4128231044</v>
+        <v>4701283132</v>
       </c>
       <c r="F591" s="7">
         <v>0</v>
       </c>
       <c r="G591" s="4">
-        <v>0</v>
+        <v>24650000</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.45">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="G603" s="4">
-        <v>0</v>
+        <v>36500000</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.45">
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="G615" s="4">
-        <v>0</v>
+        <v>62100000</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.45">
@@ -15523,13 +15523,13 @@
         <v>102176000</v>
       </c>
       <c r="E651" s="4">
-        <v>71070000</v>
+        <v>80820599</v>
       </c>
       <c r="F651" s="7">
         <v>0</v>
       </c>
       <c r="G651" s="4">
-        <v>53633900</v>
+        <v>137491406</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.45">
@@ -15799,13 +15799,13 @@
         <v>210325000</v>
       </c>
       <c r="E663" s="4">
-        <v>0</v>
+        <v>158370071</v>
       </c>
       <c r="F663" s="7">
         <v>0</v>
       </c>
       <c r="G663" s="4">
-        <v>0</v>
+        <v>158370071</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.45">
@@ -16075,13 +16075,13 @@
         <v>272450000</v>
       </c>
       <c r="E675" s="4">
-        <v>121850860</v>
+        <v>165605895</v>
       </c>
       <c r="F675" s="7">
         <v>85000000</v>
       </c>
       <c r="G675" s="4">
-        <v>0</v>
+        <v>86559328</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.45">
@@ -17455,13 +17455,13 @@
         <v>41156000</v>
       </c>
       <c r="E735" s="4">
-        <v>27908408</v>
+        <v>43215908</v>
       </c>
       <c r="F735" s="7">
         <v>41156000</v>
       </c>
       <c r="G735" s="4">
-        <v>32354201</v>
+        <v>32679201</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.45">
@@ -17731,13 +17731,13 @@
         <v>192500000</v>
       </c>
       <c r="E747" s="4">
-        <v>0</v>
+        <v>141087260</v>
       </c>
       <c r="F747" s="7">
         <v>192500000</v>
       </c>
       <c r="G747" s="4">
-        <v>0</v>
+        <v>141087260</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.45">
@@ -18007,13 +18007,13 @@
         <v>138362000</v>
       </c>
       <c r="E759" s="4">
-        <v>6626164192</v>
+        <v>14723328892</v>
       </c>
       <c r="F759" s="7">
         <v>138362000</v>
       </c>
       <c r="G759" s="4">
-        <v>274975443</v>
+        <v>426154218</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.45">
@@ -19387,13 +19387,13 @@
         <v>138250000</v>
       </c>
       <c r="E819" s="4">
-        <v>81263470</v>
+        <v>82038470</v>
       </c>
       <c r="F819" s="7">
         <v>138250000</v>
       </c>
       <c r="G819" s="4">
-        <v>69379750</v>
+        <v>70154750</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.45">
@@ -19663,13 +19663,13 @@
         <v>293480000</v>
       </c>
       <c r="E831" s="4">
-        <v>0</v>
+        <v>202611220</v>
       </c>
       <c r="F831" s="7">
         <v>293480000</v>
       </c>
       <c r="G831" s="4">
-        <v>5779395</v>
+        <v>207808845</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.45">
@@ -19939,13 +19939,13 @@
         <v>232029000</v>
       </c>
       <c r="E843" s="4">
-        <v>202693510</v>
+        <v>316431833</v>
       </c>
       <c r="F843" s="7">
         <v>256149000</v>
       </c>
       <c r="G843" s="4">
-        <v>143586204</v>
+        <v>187448104</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.45">
@@ -21319,13 +21319,13 @@
         <v>32625000</v>
       </c>
       <c r="E903" s="4">
-        <v>80643477</v>
+        <v>131493477</v>
       </c>
       <c r="F903" s="7">
         <v>32625000</v>
       </c>
       <c r="G903" s="4">
-        <v>42502000</v>
+        <v>44852000</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.45">
@@ -21595,13 +21595,13 @@
         <v>34256000</v>
       </c>
       <c r="E915" s="4">
-        <v>1324642</v>
+        <v>35802840</v>
       </c>
       <c r="F915" s="7">
         <v>34256000</v>
       </c>
       <c r="G915" s="4">
-        <v>0</v>
+        <v>34478198</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.45">
@@ -21871,7 +21871,7 @@
         <v>147500000</v>
       </c>
       <c r="E927" s="4">
-        <v>611313960</v>
+        <v>660310335</v>
       </c>
       <c r="F927" s="7">
         <v>0</v>
@@ -22423,7 +22423,7 @@
         <v>79200000</v>
       </c>
       <c r="E951" s="4">
-        <v>0</v>
+        <v>37804500</v>
       </c>
       <c r="F951" s="7">
         <v>79200000</v>
@@ -23251,13 +23251,13 @@
         <v>233552000</v>
       </c>
       <c r="E987" s="4">
-        <v>90706850</v>
+        <v>121455950</v>
       </c>
       <c r="F987" s="7">
         <v>233552000</v>
       </c>
       <c r="G987" s="4">
-        <v>78326500</v>
+        <v>91152500</v>
       </c>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.45">
@@ -23527,13 +23527,13 @@
         <v>212500000</v>
       </c>
       <c r="E999" s="4">
-        <v>9815000</v>
+        <v>130722605</v>
       </c>
       <c r="F999" s="7">
         <v>212500000</v>
       </c>
       <c r="G999" s="4">
-        <v>0</v>
+        <v>121222605</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.45">
@@ -25183,13 +25183,13 @@
         <v>0</v>
       </c>
       <c r="E1071" s="4">
-        <v>1004400</v>
+        <v>3123150</v>
       </c>
       <c r="F1071" s="7">
         <v>0</v>
       </c>
       <c r="G1071" s="4">
-        <v>0</v>
+        <v>3117150</v>
       </c>
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.45">
@@ -25734,7 +25734,13 @@
       <c r="D1095" s="7">
         <v>0</v>
       </c>
+      <c r="E1095" s="4">
+        <v>0</v>
+      </c>
       <c r="F1095" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1095" s="4">
         <v>0</v>
       </c>
     </row>
@@ -25982,13 +25988,13 @@
         <v>781668000</v>
       </c>
       <c r="E1106" s="3">
-        <v>12060057477</v>
+        <v>4033286500</v>
       </c>
       <c r="F1106" s="6">
         <v>0</v>
       </c>
       <c r="G1106" s="3">
-        <v>8026770977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.45">
@@ -26004,8 +26010,14 @@
       <c r="D1107" s="7">
         <v>660000000</v>
       </c>
+      <c r="E1107" s="4">
+        <v>4210736952</v>
+      </c>
       <c r="F1107" s="7">
         <v>80000000</v>
+      </c>
+      <c r="G1107" s="4">
+        <v>96556000</v>
       </c>
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.45">
@@ -26252,13 +26264,13 @@
         <v>0</v>
       </c>
       <c r="E1118" s="3">
-        <v>570691280</v>
+        <v>82800000</v>
       </c>
       <c r="F1118" s="6">
         <v>0</v>
       </c>
       <c r="G1118" s="3">
-        <v>487891280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.45">
@@ -26274,8 +26286,14 @@
       <c r="D1119" s="7">
         <v>254037000</v>
       </c>
+      <c r="E1119" s="4">
+        <v>45540000</v>
+      </c>
       <c r="F1119" s="7">
         <v>0</v>
+      </c>
+      <c r="G1119" s="4">
+        <v>82800000</v>
       </c>
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.45">
@@ -26522,13 +26540,13 @@
         <v>0</v>
       </c>
       <c r="E1130" s="3">
-        <v>299164397</v>
+        <v>0</v>
       </c>
       <c r="F1130" s="6">
         <v>0</v>
       </c>
       <c r="G1130" s="3">
-        <v>299164397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.45">
@@ -26544,7 +26562,13 @@
       <c r="D1131" s="7">
         <v>0</v>
       </c>
+      <c r="E1131" s="4">
+        <v>12720000</v>
+      </c>
       <c r="F1131" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1131" s="4">
         <v>0</v>
       </c>
     </row>
@@ -26814,7 +26838,13 @@
       <c r="D1143" s="7">
         <v>0</v>
       </c>
+      <c r="E1143" s="4">
+        <v>0</v>
+      </c>
       <c r="F1143" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1143" s="4">
         <v>0</v>
       </c>
     </row>
@@ -27062,13 +27092,13 @@
         <v>183078000</v>
       </c>
       <c r="E1154" s="3">
-        <v>3059942452</v>
+        <v>142025182</v>
       </c>
       <c r="F1154" s="6">
         <v>178078000</v>
       </c>
       <c r="G1154" s="3">
-        <v>2938136332</v>
+        <v>20219062</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.45">
@@ -27084,8 +27114,14 @@
       <c r="D1155" s="7">
         <v>278078000</v>
       </c>
+      <c r="E1155" s="4">
+        <v>130923900</v>
+      </c>
       <c r="F1155" s="7">
         <v>183078000</v>
+      </c>
+      <c r="G1155" s="4">
+        <v>163539770</v>
       </c>
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.45">
@@ -27332,13 +27368,13 @@
         <v>213333000</v>
       </c>
       <c r="E1166" s="3">
-        <v>2745885834</v>
+        <v>268881303</v>
       </c>
       <c r="F1166" s="6">
         <v>213333000</v>
       </c>
       <c r="G1166" s="3">
-        <v>2745557793</v>
+        <v>268553262</v>
       </c>
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.45">
@@ -27354,8 +27390,14 @@
       <c r="D1167" s="7">
         <v>213333000</v>
       </c>
+      <c r="E1167" s="4">
+        <v>186153806</v>
+      </c>
       <c r="F1167" s="7">
         <v>213333000</v>
+      </c>
+      <c r="G1167" s="4">
+        <v>178077441</v>
       </c>
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.45">
@@ -27602,13 +27644,13 @@
         <v>100000000</v>
       </c>
       <c r="E1178" s="3">
-        <v>36615068882</v>
+        <v>9143456586</v>
       </c>
       <c r="F1178" s="6">
         <v>0</v>
       </c>
       <c r="G1178" s="3">
-        <v>27459732935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.45">
@@ -27624,8 +27666,14 @@
       <c r="D1179" s="7">
         <v>720600000</v>
       </c>
+      <c r="E1179" s="4">
+        <v>477983925</v>
+      </c>
       <c r="F1179" s="7">
         <v>100000000</v>
+      </c>
+      <c r="G1179" s="4">
+        <v>166766116</v>
       </c>
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.45">
@@ -27872,13 +27920,13 @@
         <v>0</v>
       </c>
       <c r="E1190" s="3">
-        <v>299104282</v>
+        <v>0</v>
       </c>
       <c r="F1190" s="6">
         <v>0</v>
       </c>
       <c r="G1190" s="3">
-        <v>299104282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.45">
@@ -27894,7 +27942,13 @@
       <c r="D1191" s="7">
         <v>0</v>
       </c>
+      <c r="E1191" s="4">
+        <v>0</v>
+      </c>
       <c r="F1191" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1191" s="4">
         <v>0</v>
       </c>
     </row>
@@ -28142,13 +28196,13 @@
         <v>0</v>
       </c>
       <c r="E1202" s="3">
-        <v>260447000</v>
+        <v>32200000</v>
       </c>
       <c r="F1202" s="6">
         <v>0</v>
       </c>
       <c r="G1202" s="3">
-        <v>228247000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.45">
@@ -28164,8 +28218,14 @@
       <c r="D1203" s="7">
         <v>0</v>
       </c>
+      <c r="E1203" s="4">
+        <v>0</v>
+      </c>
       <c r="F1203" s="7">
         <v>0</v>
+      </c>
+      <c r="G1203" s="4">
+        <v>32200000</v>
       </c>
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.45">
@@ -28412,13 +28472,13 @@
         <v>0</v>
       </c>
       <c r="E1214" s="3">
-        <v>563271893</v>
+        <v>18435000</v>
       </c>
       <c r="F1214" s="6">
         <v>0</v>
       </c>
       <c r="G1214" s="3">
-        <v>544836893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.45">
@@ -28434,8 +28494,14 @@
       <c r="D1215" s="7">
         <v>0</v>
       </c>
+      <c r="E1215" s="4">
+        <v>64735000</v>
+      </c>
       <c r="F1215" s="7">
         <v>0</v>
+      </c>
+      <c r="G1215" s="4">
+        <v>18435000</v>
       </c>
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.45">
@@ -28704,7 +28770,13 @@
       <c r="D1227" s="7">
         <v>0</v>
       </c>
+      <c r="E1227" s="4">
+        <v>0</v>
+      </c>
       <c r="F1227" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1227" s="4">
         <v>0</v>
       </c>
     </row>
@@ -28952,13 +29024,13 @@
         <v>48354000</v>
       </c>
       <c r="E1238" s="3">
-        <v>1813172829</v>
+        <v>78887534</v>
       </c>
       <c r="F1238" s="6">
         <v>0</v>
       </c>
       <c r="G1238" s="3">
-        <v>1743522395</v>
+        <v>17317500</v>
       </c>
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.45">
@@ -28975,13 +29047,13 @@
         <v>98291000</v>
       </c>
       <c r="E1239" s="4">
-        <v>0</v>
+        <v>37118745</v>
       </c>
       <c r="F1239" s="7">
         <v>49253000</v>
       </c>
       <c r="G1239" s="4">
-        <v>0</v>
+        <v>97688779</v>
       </c>
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.45">
@@ -29228,13 +29300,13 @@
         <v>128276000</v>
       </c>
       <c r="E1250" s="3">
-        <v>1541350607</v>
+        <v>122102415</v>
       </c>
       <c r="F1250" s="6">
         <v>0</v>
       </c>
       <c r="G1250" s="3">
-        <v>1535350607</v>
+        <v>116102415</v>
       </c>
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.45">
@@ -29251,13 +29323,13 @@
         <v>128276000</v>
       </c>
       <c r="E1251" s="4">
-        <v>0</v>
+        <v>108945350</v>
       </c>
       <c r="F1251" s="7">
         <v>128276000</v>
       </c>
       <c r="G1251" s="4">
-        <v>0</v>
+        <v>114601656</v>
       </c>
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.45">

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90BD099-372B-4B00-99FC-73FEAA41B65A}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC575B3E-9C44-47EC-A9E8-6A6FF8884103}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D975" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D663" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1095" sqref="G1095"/>
+      <selection pane="bottomRight" activeCell="G759" activeCellId="1" sqref="E759 G759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18007,14 +18007,8 @@
       <c r="D759" s="7">
         <v>138362000</v>
       </c>
-      <c r="E759" s="4">
-        <v>14723328892</v>
-      </c>
       <c r="F759" s="7">
         <v>138362000</v>
-      </c>
-      <c r="G759" s="4">
-        <v>426154218</v>
       </c>
     </row>
     <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.45">

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC575B3E-9C44-47EC-A9E8-6A6FF8884103}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB3FB5B-3DBE-466D-91E9-F2C730BB1BBA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D663" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D639" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G759" activeCellId="1" sqref="E759 G759"/>
+      <selection pane="bottomRight" activeCell="F770" sqref="F770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>121841700</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>275097724</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>27147500</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>243961748</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>52871500</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>19564700</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>166384517</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>10</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>10</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>29120235</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>180294464</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>10</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>10</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>10</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>10</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>10</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>17499750</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>10</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>201478069</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>10</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>10</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>10</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>10</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>19578750</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>199624421</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>10</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>10</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>10</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>10</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>7</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>16907009</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>162001884</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>10</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>10</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>10</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>2159300</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>10</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>10</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>13701000</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>10</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>143058335</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>10</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>10</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>10</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>10</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>10</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>16205500</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>10</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>203746495</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>10</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>10</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>10</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>10</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="878" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>10</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="890" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
         <v>10</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>33275000</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
         <v>10</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>35093864</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
         <v>10</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
         <v>10</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="938" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
         <v>10</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A950" t="s">
         <v>7</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
         <v>10</v>
       </c>
@@ -22657,7 +22657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="962" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A963" t="s">
         <v>10</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A974" t="s">
         <v>7</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A975" t="s">
         <v>10</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="986" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>5977500</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A987" t="s">
         <v>10</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="998" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>96928940</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A999" t="s">
         <v>10</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1011" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1011" t="s">
         <v>10</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1023" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1023" t="s">
         <v>10</v>
       </c>
@@ -24313,7 +24313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1035" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1035" t="s">
         <v>10</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1047" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1047" t="s">
         <v>10</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1059" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1059" t="s">
         <v>10</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1070" t="s">
         <v>7</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>2487500</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1071" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1071" t="s">
         <v>10</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1083" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1083" t="s">
         <v>10</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1095" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1095" t="s">
         <v>10</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1107" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1107" t="s">
         <v>10</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -26268,7 +26268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1119" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1119" t="s">
         <v>10</v>
       </c>
@@ -26521,7 +26521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1131" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1131" t="s">
         <v>10</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1143" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1143" t="s">
         <v>10</v>
       </c>
@@ -27073,7 +27073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>20219062</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1155" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1155" t="s">
         <v>10</v>
       </c>
@@ -27349,7 +27349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>268553262</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1167" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1167" t="s">
         <v>10</v>
       </c>
@@ -27625,7 +27625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1179" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1179" t="s">
         <v>10</v>
       </c>
@@ -27901,7 +27901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1190" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1190" t="s">
         <v>7</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1191" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1191" t="s">
         <v>10</v>
       </c>
@@ -28177,7 +28177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1202" t="s">
         <v>7</v>
       </c>
@@ -28200,7 +28200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1203" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1203" t="s">
         <v>10</v>
       </c>
@@ -28453,7 +28453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1214" t="s">
         <v>7</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1215" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1215" t="s">
         <v>10</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1226" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1226" t="s">
         <v>7</v>
       </c>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1227" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1227" t="s">
         <v>10</v>
       </c>
@@ -29005,7 +29005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1238" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1238" t="s">
         <v>7</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>17317500</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1239" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1239" t="s">
         <v>10</v>
       </c>
@@ -29281,7 +29281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1250" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1250" t="s">
         <v>7</v>
       </c>
@@ -29304,7 +29304,7 @@
         <v>116102415</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1251" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1251" t="s">
         <v>10</v>
       </c>
@@ -29561,7 +29561,7 @@
   <autoFilter ref="A1:G1261" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Feb"/>
+        <filter val="Jan"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/monitoring-rka-2026.xlsx
+++ b/data/monitoring-rka-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB3FB5B-3DBE-466D-91E9-F2C730BB1BBA}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="11_2A22CECA176412FEE87DD0355E5DCE3AB74173C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E009CE-79CA-43FD-A638-7160E60A76E7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:G1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D639" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D614" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F770" sqref="F770"/>
+      <selection pane="bottomRight" activeCell="F686" sqref="F686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18007,8 +18007,14 @@
       <c r="D759" s="7">
         <v>138362000</v>
       </c>
+      <c r="E759" s="4">
+        <v>14723328892</v>
+      </c>
       <c r="F759" s="7">
         <v>138362000</v>
+      </c>
+      <c r="G759" s="4">
+        <v>426154218</v>
       </c>
     </row>
     <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
